--- a/data/HazopCrawleyGuideToBestPracticeNormalizedShort.xlsx
+++ b/data/HazopCrawleyGuideToBestPracticeNormalizedShort.xlsx
@@ -12,18 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="142">
   <si>
     <t>Label</t>
   </si>
   <si>
+    <t>HazopMetadataTable4.4</t>
+  </si>
+  <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>HazopMetadataTable4.4</t>
   </si>
   <si>
     <t>Table 4.4 This is a selection from the report that could result from the study. Enough has been included here to illustrate each of the main guidewords at least once. An action placed on two team members means that they are both expected to be involved in resolving the problem. However, the responsibility for the response is placed upon the ﬁrst named member.</t>
@@ -749,14 +746,9 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="CMU Bright Roman"/>
-    </font>
-    <font>
       <sz val="15"/>
       <color indexed="8"/>
-      <name val="CMU Serif Roman"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b val="1"/>
@@ -764,8 +756,13 @@
       <color indexed="8"/>
       <name val="CMU Bright Roman"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="CMU Bright Roman"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -778,8 +775,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -798,7 +801,7 @@
         <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -810,11 +813,24 @@
         <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -828,7 +844,20 @@
         <color indexed="10"/>
       </top>
       <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -838,44 +867,47 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -897,7 +929,9 @@
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1962,42 +1996,35 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.1172" style="1" customWidth="1"/>
-    <col min="2" max="2" width="78.4609" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1719" style="1" customWidth="1"/>
+    <col min="2" max="2" width="78.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.55" customHeight="1">
+    <row r="1" ht="14.55" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="3">
         <v>1</v>
       </c>
+      <c r="C1" s="4"/>
     </row>
-    <row r="2" ht="14.55" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" ht="50.35" customHeight="1">
+      <c r="A2" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="B2" t="s" s="4">
+      <c r="B2" t="s" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" ht="50.35" customHeight="1">
-      <c r="A3" t="s" s="5">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s" s="6">
-        <v>4</v>
-      </c>
+      <c r="C2" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -2012,774 +2039,772 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="3.85156" style="7" customWidth="1"/>
-    <col min="2" max="2" width="20.5" style="7" customWidth="1"/>
-    <col min="3" max="3" width="22.6719" style="7" customWidth="1"/>
-    <col min="4" max="4" width="22.5" style="7" customWidth="1"/>
-    <col min="5" max="6" width="22.6719" style="7" customWidth="1"/>
-    <col min="7" max="7" width="22.5" style="7" customWidth="1"/>
-    <col min="8" max="8" width="11.1172" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="16.3516" style="7" customWidth="1"/>
+    <col min="1" max="1" width="3.85156" style="8" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="8" customWidth="1"/>
+    <col min="3" max="3" width="22.6719" style="8" customWidth="1"/>
+    <col min="4" max="4" width="22.5" style="8" customWidth="1"/>
+    <col min="5" max="6" width="22.6719" style="8" customWidth="1"/>
+    <col min="7" max="7" width="22.5" style="8" customWidth="1"/>
+    <col min="8" max="8" width="11.1719" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="16.3516" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.55" customHeight="1">
-      <c r="A1" t="s" s="8">
+      <c r="A1" t="s" s="9">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s" s="9">
         <v>5</v>
       </c>
-      <c r="B1" t="s" s="8">
+      <c r="C1" t="s" s="9">
         <v>6</v>
       </c>
-      <c r="C1" t="s" s="8">
+      <c r="D1" t="s" s="9">
         <v>7</v>
       </c>
-      <c r="D1" t="s" s="8">
+      <c r="E1" t="s" s="9">
         <v>8</v>
       </c>
-      <c r="E1" t="s" s="8">
+      <c r="F1" t="s" s="9">
         <v>9</v>
       </c>
-      <c r="F1" t="s" s="8">
+      <c r="G1" t="s" s="9">
         <v>10</v>
       </c>
-      <c r="G1" t="s" s="8">
+      <c r="H1" t="s" s="9">
         <v>11</v>
-      </c>
-      <c r="H1" t="s" s="8">
-        <v>12</v>
       </c>
     </row>
     <row r="2" ht="62.55" customHeight="1">
-      <c r="A2" s="9">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="10">
+      <c r="B2" t="s" s="11">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s" s="11">
         <v>13</v>
       </c>
-      <c r="C2" t="s" s="10">
+      <c r="D2" t="s" s="11">
         <v>14</v>
       </c>
-      <c r="D2" t="s" s="10">
+      <c r="E2" t="s" s="11">
         <v>15</v>
       </c>
-      <c r="E2" t="s" s="10">
+      <c r="F2" t="s" s="11">
         <v>16</v>
       </c>
-      <c r="F2" t="s" s="10">
+      <c r="G2" t="s" s="11">
         <v>17</v>
       </c>
-      <c r="G2" t="s" s="10">
+      <c r="H2" t="s" s="11">
         <v>18</v>
-      </c>
-      <c r="H2" t="s" s="10">
-        <v>19</v>
       </c>
     </row>
     <row r="3" ht="62.35" customHeight="1">
-      <c r="A3" s="11">
+      <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="12">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s" s="12">
+      <c r="B3" t="s" s="13">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s" s="13">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="D3" t="s" s="12">
+      <c r="E3" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="E3" t="s" s="12">
+      <c r="F3" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="F3" t="s" s="12">
+      <c r="G3" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="G3" t="s" s="12">
+      <c r="H3" t="s" s="13">
         <v>24</v>
-      </c>
-      <c r="H3" t="s" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="4" ht="62.35" customHeight="1">
-      <c r="A4" s="11">
+      <c r="A4" s="12">
         <f>A3</f>
         <v>2</v>
       </c>
-      <c r="B4" t="s" s="12">
+      <c r="B4" t="s" s="13">
         <f>B3</f>
+        <v>25</v>
+      </c>
+      <c r="C4" t="s" s="13">
+        <f>C3</f>
         <v>26</v>
       </c>
-      <c r="C4" t="s" s="12">
-        <f>C3</f>
+      <c r="D4" t="s" s="13">
+        <f>D3</f>
         <v>27</v>
       </c>
-      <c r="D4" t="s" s="12">
-        <f>D3</f>
+      <c r="E4" t="s" s="13">
+        <f>E3</f>
         <v>28</v>
       </c>
-      <c r="E4" t="s" s="12">
-        <f>E3</f>
+      <c r="F4" t="s" s="13">
         <v>29</v>
       </c>
-      <c r="F4" t="s" s="12">
+      <c r="G4" t="s" s="13">
         <v>30</v>
       </c>
-      <c r="G4" t="s" s="12">
+      <c r="H4" t="s" s="13">
         <v>31</v>
-      </c>
-      <c r="H4" t="s" s="12">
-        <v>32</v>
       </c>
     </row>
     <row r="5" ht="26.35" customHeight="1">
-      <c r="A5" s="11">
+      <c r="A5" s="12">
         <v>8</v>
       </c>
-      <c r="B5" t="s" s="12">
+      <c r="B5" t="s" s="13">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s" s="13">
         <v>33</v>
       </c>
-      <c r="C5" t="s" s="12">
+      <c r="D5" t="s" s="13">
         <v>34</v>
       </c>
-      <c r="D5" t="s" s="12">
+      <c r="E5" t="s" s="13">
         <v>35</v>
       </c>
-      <c r="E5" t="s" s="12">
+      <c r="F5" t="s" s="13">
         <v>36</v>
       </c>
-      <c r="F5" t="s" s="12">
+      <c r="G5" t="s" s="13">
         <v>37</v>
       </c>
-      <c r="G5" t="s" s="12">
-        <v>38</v>
-      </c>
-      <c r="H5" t="s" s="12">
-        <v>25</v>
+      <c r="H5" t="s" s="13">
+        <v>24</v>
       </c>
     </row>
     <row r="6" ht="38.35" customHeight="1">
-      <c r="A6" s="11">
+      <c r="A6" s="12">
         <v>9</v>
       </c>
-      <c r="B6" t="s" s="12">
+      <c r="B6" t="s" s="13">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s" s="13">
         <v>39</v>
       </c>
-      <c r="C6" t="s" s="12">
+      <c r="D6" t="s" s="13">
         <v>40</v>
       </c>
-      <c r="D6" t="s" s="12">
+      <c r="E6" t="s" s="13">
         <v>41</v>
       </c>
-      <c r="E6" t="s" s="12">
+      <c r="F6" t="s" s="13">
         <v>42</v>
       </c>
-      <c r="F6" t="s" s="12">
+      <c r="G6" t="s" s="13">
         <v>43</v>
       </c>
-      <c r="G6" t="s" s="12">
-        <v>44</v>
-      </c>
-      <c r="H6" t="s" s="12">
-        <v>19</v>
+      <c r="H6" t="s" s="13">
+        <v>18</v>
       </c>
     </row>
     <row r="7" ht="38.35" customHeight="1">
-      <c r="A7" s="11">
+      <c r="A7" s="12">
         <f>A6</f>
         <v>9</v>
       </c>
-      <c r="B7" t="s" s="12">
+      <c r="B7" t="s" s="13">
         <f>B6</f>
+        <v>44</v>
+      </c>
+      <c r="C7" t="s" s="13">
+        <f>C6</f>
         <v>45</v>
       </c>
-      <c r="C7" t="s" s="12">
-        <f>C6</f>
+      <c r="D7" t="s" s="13">
+        <f>D6</f>
         <v>46</v>
       </c>
-      <c r="D7" t="s" s="12">
-        <f>D6</f>
+      <c r="E7" t="s" s="13">
+        <f>E6</f>
         <v>47</v>
       </c>
-      <c r="E7" t="s" s="12">
-        <f>E6</f>
+      <c r="F7" t="s" s="13">
+        <f>F6</f>
         <v>48</v>
       </c>
-      <c r="F7" t="s" s="12">
-        <f>F6</f>
+      <c r="G7" t="s" s="13">
+        <f>G6</f>
         <v>49</v>
       </c>
-      <c r="G7" t="s" s="12">
-        <f>G6</f>
-        <v>50</v>
-      </c>
-      <c r="H7" t="s" s="12">
-        <v>25</v>
+      <c r="H7" t="s" s="13">
+        <v>24</v>
       </c>
     </row>
     <row r="8" ht="38.35" customHeight="1">
-      <c r="A8" s="11">
+      <c r="A8" s="12">
         <f>A6</f>
         <v>9</v>
       </c>
-      <c r="B8" t="s" s="12">
+      <c r="B8" t="s" s="13">
         <f>B6</f>
+        <v>44</v>
+      </c>
+      <c r="C8" t="s" s="13">
+        <f>C6</f>
         <v>45</v>
       </c>
-      <c r="C8" t="s" s="12">
-        <f>C6</f>
+      <c r="D8" t="s" s="13">
+        <f>D6</f>
         <v>46</v>
       </c>
-      <c r="D8" t="s" s="12">
-        <f>D6</f>
+      <c r="E8" t="s" s="13">
+        <f>E6</f>
         <v>47</v>
       </c>
-      <c r="E8" t="s" s="12">
-        <f>E6</f>
-        <v>48</v>
-      </c>
-      <c r="F8" t="s" s="12">
+      <c r="F8" t="s" s="13">
+        <v>50</v>
+      </c>
+      <c r="G8" t="s" s="13">
         <v>51</v>
       </c>
-      <c r="G8" t="s" s="12">
-        <v>52</v>
-      </c>
-      <c r="H8" t="s" s="12">
-        <v>32</v>
+      <c r="H8" t="s" s="13">
+        <v>31</v>
       </c>
     </row>
     <row r="9" ht="38.35" customHeight="1">
-      <c r="A9" s="11">
+      <c r="A9" s="12">
         <f>A6</f>
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="12">
+      <c r="B9" t="s" s="13">
         <f>B6</f>
+        <v>44</v>
+      </c>
+      <c r="C9" t="s" s="13">
+        <f>C6</f>
         <v>45</v>
       </c>
-      <c r="C9" t="s" s="12">
-        <f>C6</f>
+      <c r="D9" t="s" s="13">
+        <f>D6</f>
         <v>46</v>
       </c>
-      <c r="D9" t="s" s="12">
-        <f>D6</f>
+      <c r="E9" t="s" s="13">
+        <f>E6</f>
         <v>47</v>
       </c>
-      <c r="E9" t="s" s="12">
-        <f>E6</f>
-        <v>48</v>
-      </c>
-      <c r="F9" t="s" s="12">
+      <c r="F9" t="s" s="13">
+        <v>52</v>
+      </c>
+      <c r="G9" t="s" s="13">
         <v>53</v>
       </c>
-      <c r="G9" t="s" s="12">
-        <v>54</v>
-      </c>
-      <c r="H9" t="s" s="12">
-        <v>32</v>
+      <c r="H9" t="s" s="13">
+        <v>31</v>
       </c>
     </row>
     <row r="10" ht="50.35" customHeight="1">
-      <c r="A10" s="11">
+      <c r="A10" s="12">
         <v>10</v>
       </c>
-      <c r="B10" t="s" s="12">
+      <c r="B10" t="s" s="13">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s" s="13">
         <v>55</v>
       </c>
-      <c r="C10" t="s" s="12">
+      <c r="D10" t="s" s="13">
         <v>56</v>
       </c>
-      <c r="D10" t="s" s="12">
+      <c r="E10" t="s" s="13">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s" s="13">
         <v>57</v>
       </c>
-      <c r="E10" t="s" s="12">
-        <v>36</v>
-      </c>
-      <c r="F10" t="s" s="12">
+      <c r="G10" t="s" s="13">
         <v>58</v>
       </c>
-      <c r="G10" t="s" s="12">
-        <v>59</v>
-      </c>
-      <c r="H10" t="s" s="12">
-        <v>32</v>
+      <c r="H10" t="s" s="13">
+        <v>31</v>
       </c>
     </row>
     <row r="11" ht="38.35" customHeight="1">
-      <c r="A11" s="11">
+      <c r="A11" s="12">
         <v>13</v>
       </c>
-      <c r="B11" t="s" s="12">
+      <c r="B11" t="s" s="13">
+        <v>59</v>
+      </c>
+      <c r="C11" t="s" s="13">
         <v>60</v>
       </c>
-      <c r="C11" t="s" s="12">
+      <c r="D11" t="s" s="13">
         <v>61</v>
       </c>
-      <c r="D11" t="s" s="12">
+      <c r="E11" t="s" s="13">
         <v>62</v>
       </c>
-      <c r="E11" t="s" s="12">
+      <c r="F11" t="s" s="13">
         <v>63</v>
       </c>
-      <c r="F11" t="s" s="12">
+      <c r="G11" t="s" s="13">
         <v>64</v>
       </c>
-      <c r="G11" t="s" s="12">
-        <v>65</v>
-      </c>
-      <c r="H11" t="s" s="12">
-        <v>25</v>
+      <c r="H11" t="s" s="13">
+        <v>24</v>
       </c>
     </row>
     <row r="12" ht="26.35" customHeight="1">
-      <c r="A12" s="11">
+      <c r="A12" s="12">
         <f>A11</f>
         <v>13</v>
       </c>
-      <c r="B12" t="s" s="12">
+      <c r="B12" t="s" s="13">
         <f>B11</f>
+        <v>65</v>
+      </c>
+      <c r="C12" t="s" s="13">
+        <f>C11</f>
         <v>66</v>
       </c>
-      <c r="C12" t="s" s="12">
-        <f>C11</f>
+      <c r="D12" t="s" s="13">
+        <f>D11</f>
         <v>67</v>
       </c>
-      <c r="D12" t="s" s="12">
-        <f>D11</f>
+      <c r="E12" t="s" s="13">
         <v>68</v>
       </c>
-      <c r="E12" t="s" s="12">
+      <c r="F12" t="s" s="13">
         <v>69</v>
       </c>
-      <c r="F12" t="s" s="12">
+      <c r="G12" t="s" s="13">
         <v>70</v>
       </c>
-      <c r="G12" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="H12" t="s" s="12">
-        <v>25</v>
+      <c r="H12" t="s" s="13">
+        <v>24</v>
       </c>
     </row>
     <row r="13" ht="38.35" customHeight="1">
-      <c r="A13" s="11">
+      <c r="A13" s="12">
         <v>16</v>
       </c>
-      <c r="B13" t="s" s="12">
+      <c r="B13" t="s" s="13">
+        <v>71</v>
+      </c>
+      <c r="C13" t="s" s="13">
         <v>72</v>
       </c>
-      <c r="C13" t="s" s="12">
+      <c r="D13" t="s" s="13">
         <v>73</v>
       </c>
-      <c r="D13" t="s" s="12">
+      <c r="E13" t="s" s="13">
         <v>74</v>
       </c>
-      <c r="E13" t="s" s="12">
+      <c r="F13" t="s" s="13">
         <v>75</v>
       </c>
-      <c r="F13" t="s" s="12">
+      <c r="G13" t="s" s="13">
         <v>76</v>
       </c>
-      <c r="G13" t="s" s="12">
+      <c r="H13" t="s" s="13">
         <v>77</v>
-      </c>
-      <c r="H13" t="s" s="12">
-        <v>78</v>
       </c>
     </row>
     <row r="14" ht="38.35" customHeight="1">
-      <c r="A14" s="11">
+      <c r="A14" s="12">
         <f>A13</f>
         <v>16</v>
       </c>
-      <c r="B14" t="s" s="12">
+      <c r="B14" t="s" s="13">
         <f>B13</f>
+        <v>78</v>
+      </c>
+      <c r="C14" t="s" s="13">
+        <f>C13</f>
         <v>79</v>
       </c>
-      <c r="C14" t="s" s="12">
-        <f>C13</f>
+      <c r="D14" t="s" s="13">
+        <f>D13</f>
         <v>80</v>
       </c>
-      <c r="D14" t="s" s="12">
-        <f>D13</f>
+      <c r="E14" t="s" s="13">
+        <f>E13</f>
         <v>81</v>
       </c>
-      <c r="E14" t="s" s="12">
-        <f>E13</f>
+      <c r="F14" t="s" s="13">
+        <f>F13</f>
         <v>82</v>
       </c>
-      <c r="F14" t="s" s="12">
-        <f>F13</f>
+      <c r="G14" t="s" s="13">
+        <f>G13</f>
         <v>83</v>
       </c>
-      <c r="G14" t="s" s="12">
-        <f>G13</f>
-        <v>84</v>
-      </c>
-      <c r="H14" t="s" s="12">
-        <v>25</v>
+      <c r="H14" t="s" s="13">
+        <v>24</v>
       </c>
     </row>
     <row r="15" ht="38.35" customHeight="1">
-      <c r="A15" s="11">
+      <c r="A15" s="12">
         <f>A13</f>
         <v>16</v>
       </c>
-      <c r="B15" t="s" s="12">
+      <c r="B15" t="s" s="13">
         <f>B13</f>
+        <v>78</v>
+      </c>
+      <c r="C15" t="s" s="13">
+        <f>C13</f>
         <v>79</v>
       </c>
-      <c r="C15" t="s" s="12">
-        <f>C13</f>
+      <c r="D15" t="s" s="13">
+        <f>D13</f>
         <v>80</v>
       </c>
-      <c r="D15" t="s" s="12">
-        <f>D13</f>
+      <c r="E15" t="s" s="13">
+        <f>E13</f>
         <v>81</v>
       </c>
-      <c r="E15" t="s" s="12">
-        <f>E13</f>
-        <v>82</v>
-      </c>
-      <c r="F15" t="s" s="12">
+      <c r="F15" t="s" s="13">
+        <v>84</v>
+      </c>
+      <c r="G15" t="s" s="13">
         <v>85</v>
       </c>
-      <c r="G15" t="s" s="12">
-        <v>86</v>
-      </c>
-      <c r="H15" t="s" s="12">
-        <v>78</v>
+      <c r="H15" t="s" s="13">
+        <v>77</v>
       </c>
     </row>
     <row r="16" ht="38.35" customHeight="1">
-      <c r="A16" s="11">
+      <c r="A16" s="12">
         <v>18</v>
       </c>
-      <c r="B16" t="s" s="12">
+      <c r="B16" t="s" s="13">
+        <v>86</v>
+      </c>
+      <c r="C16" t="s" s="13">
         <v>87</v>
       </c>
-      <c r="C16" t="s" s="12">
+      <c r="D16" t="s" s="13">
         <v>88</v>
       </c>
-      <c r="D16" t="s" s="12">
+      <c r="E16" t="s" s="13">
         <v>89</v>
       </c>
-      <c r="E16" t="s" s="12">
+      <c r="F16" t="s" s="13">
         <v>90</v>
       </c>
-      <c r="F16" t="s" s="12">
+      <c r="G16" t="s" s="13">
         <v>91</v>
       </c>
-      <c r="G16" t="s" s="12">
-        <v>92</v>
-      </c>
-      <c r="H16" t="s" s="12">
-        <v>32</v>
+      <c r="H16" t="s" s="13">
+        <v>31</v>
       </c>
     </row>
     <row r="17" ht="38.35" customHeight="1">
-      <c r="A17" s="11">
+      <c r="A17" s="12">
         <f>A16</f>
         <v>18</v>
       </c>
-      <c r="B17" t="s" s="12">
+      <c r="B17" t="s" s="13">
         <f>B16</f>
+        <v>92</v>
+      </c>
+      <c r="C17" t="s" s="13">
+        <f>C16</f>
         <v>93</v>
       </c>
-      <c r="C17" t="s" s="12">
-        <f>C16</f>
+      <c r="D17" t="s" s="13">
+        <f>D16</f>
         <v>94</v>
       </c>
-      <c r="D17" t="s" s="12">
-        <f>D16</f>
+      <c r="E17" t="s" s="13">
+        <f>E16</f>
         <v>95</v>
       </c>
-      <c r="E17" t="s" s="12">
-        <f>E16</f>
+      <c r="F17" t="s" s="13">
         <v>96</v>
       </c>
-      <c r="F17" t="s" s="12">
+      <c r="G17" t="s" s="13">
         <v>97</v>
       </c>
-      <c r="G17" t="s" s="12">
-        <v>98</v>
-      </c>
-      <c r="H17" t="s" s="12">
-        <v>25</v>
+      <c r="H17" t="s" s="13">
+        <v>24</v>
       </c>
     </row>
     <row r="18" ht="62.35" customHeight="1">
-      <c r="A18" s="11">
+      <c r="A18" s="12">
         <v>19</v>
       </c>
-      <c r="B18" t="s" s="12">
+      <c r="B18" t="s" s="13">
+        <v>98</v>
+      </c>
+      <c r="C18" t="s" s="13">
         <v>99</v>
       </c>
-      <c r="C18" t="s" s="12">
+      <c r="D18" t="s" s="13">
         <v>100</v>
       </c>
-      <c r="D18" t="s" s="12">
+      <c r="E18" t="s" s="13">
         <v>101</v>
       </c>
-      <c r="E18" t="s" s="12">
+      <c r="F18" t="s" s="13">
         <v>102</v>
       </c>
-      <c r="F18" t="s" s="12">
+      <c r="G18" t="s" s="13">
         <v>103</v>
       </c>
-      <c r="G18" t="s" s="12">
-        <v>104</v>
-      </c>
-      <c r="H18" t="s" s="12">
-        <v>25</v>
+      <c r="H18" t="s" s="13">
+        <v>24</v>
       </c>
     </row>
     <row r="19" ht="62.35" customHeight="1">
-      <c r="A19" s="11">
+      <c r="A19" s="12">
         <f>A18</f>
         <v>19</v>
       </c>
-      <c r="B19" t="s" s="12">
+      <c r="B19" t="s" s="13">
         <f>B18</f>
+        <v>104</v>
+      </c>
+      <c r="C19" t="s" s="13">
+        <f>C18</f>
         <v>105</v>
       </c>
-      <c r="C19" t="s" s="12">
-        <f>C18</f>
+      <c r="D19" t="s" s="13">
+        <f>D18</f>
         <v>106</v>
       </c>
-      <c r="D19" t="s" s="12">
-        <f>D18</f>
+      <c r="E19" t="s" s="13">
+        <f>E18</f>
         <v>107</v>
       </c>
-      <c r="E19" t="s" s="12">
-        <f>E18</f>
+      <c r="F19" t="s" s="13">
+        <f>F18</f>
         <v>108</v>
       </c>
-      <c r="F19" t="s" s="12">
-        <f>F18</f>
+      <c r="G19" t="s" s="13">
+        <f>G18</f>
         <v>109</v>
       </c>
-      <c r="G19" t="s" s="12">
-        <f>G18</f>
-        <v>110</v>
-      </c>
-      <c r="H19" t="s" s="12">
-        <v>19</v>
+      <c r="H19" t="s" s="13">
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="74.35" customHeight="1">
-      <c r="A20" s="11">
+      <c r="A20" s="12">
         <v>21</v>
       </c>
-      <c r="B20" t="s" s="12">
+      <c r="B20" t="s" s="13">
+        <v>110</v>
+      </c>
+      <c r="C20" t="s" s="13">
         <v>111</v>
       </c>
-      <c r="C20" t="s" s="12">
+      <c r="D20" t="s" s="13">
         <v>112</v>
       </c>
-      <c r="D20" t="s" s="12">
+      <c r="E20" t="s" s="13">
         <v>113</v>
       </c>
-      <c r="E20" t="s" s="12">
+      <c r="F20" t="s" s="13">
         <v>114</v>
       </c>
-      <c r="F20" t="s" s="12">
+      <c r="G20" t="s" s="13">
         <v>115</v>
       </c>
-      <c r="G20" t="s" s="12">
-        <v>116</v>
-      </c>
-      <c r="H20" t="s" s="12">
-        <v>25</v>
+      <c r="H20" t="s" s="13">
+        <v>24</v>
       </c>
     </row>
     <row r="21" ht="74.35" customHeight="1">
-      <c r="A21" s="11">
+      <c r="A21" s="12">
         <f>A20</f>
         <v>21</v>
       </c>
-      <c r="B21" t="s" s="12">
+      <c r="B21" t="s" s="13">
         <f>B20</f>
+        <v>116</v>
+      </c>
+      <c r="C21" t="s" s="13">
+        <f>C20</f>
         <v>117</v>
       </c>
-      <c r="C21" t="s" s="12">
-        <f>C20</f>
+      <c r="D21" t="s" s="13">
+        <f>D20</f>
         <v>118</v>
       </c>
-      <c r="D21" t="s" s="12">
-        <f>D20</f>
+      <c r="E21" t="s" s="13">
+        <f>E20</f>
         <v>119</v>
       </c>
-      <c r="E21" t="s" s="12">
-        <f>E20</f>
+      <c r="F21" t="s" s="13">
         <v>120</v>
       </c>
-      <c r="F21" t="s" s="12">
+      <c r="G21" t="s" s="13">
         <v>121</v>
       </c>
-      <c r="G21" t="s" s="12">
-        <v>122</v>
-      </c>
-      <c r="H21" t="s" s="12">
-        <v>19</v>
+      <c r="H21" t="s" s="13">
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="38.35" customHeight="1">
-      <c r="A22" s="11">
+      <c r="A22" s="12">
         <v>22</v>
       </c>
-      <c r="B22" t="s" s="12">
+      <c r="B22" t="s" s="13">
+        <v>122</v>
+      </c>
+      <c r="C22" t="s" s="13">
         <v>123</v>
       </c>
-      <c r="C22" t="s" s="12">
+      <c r="D22" t="s" s="13">
         <v>124</v>
       </c>
-      <c r="D22" t="s" s="12">
+      <c r="E22" t="s" s="13">
         <v>125</v>
       </c>
-      <c r="E22" t="s" s="12">
+      <c r="F22" t="s" s="13">
         <v>126</v>
       </c>
-      <c r="F22" t="s" s="12">
+      <c r="G22" t="s" s="13">
         <v>127</v>
       </c>
-      <c r="G22" t="s" s="12">
-        <v>128</v>
-      </c>
-      <c r="H22" t="s" s="12">
-        <v>32</v>
+      <c r="H22" t="s" s="13">
+        <v>31</v>
       </c>
     </row>
     <row r="23" ht="38.35" customHeight="1">
-      <c r="A23" s="11">
+      <c r="A23" s="12">
         <f>A22</f>
         <v>22</v>
       </c>
-      <c r="B23" t="s" s="12">
+      <c r="B23" t="s" s="13">
         <f>B22</f>
+        <v>128</v>
+      </c>
+      <c r="C23" t="s" s="13">
+        <f>C22</f>
         <v>129</v>
       </c>
-      <c r="C23" t="s" s="12">
-        <f>C22</f>
+      <c r="D23" t="s" s="13">
+        <f>D22</f>
         <v>130</v>
       </c>
-      <c r="D23" t="s" s="12">
-        <f>D22</f>
+      <c r="E23" t="s" s="13">
+        <f>E22</f>
         <v>131</v>
       </c>
-      <c r="E23" t="s" s="12">
-        <f>E22</f>
+      <c r="F23" t="s" s="13">
+        <f>F22</f>
         <v>132</v>
       </c>
-      <c r="F23" t="s" s="12">
-        <f>F22</f>
+      <c r="G23" t="s" s="13">
+        <f>G22</f>
         <v>133</v>
       </c>
-      <c r="G23" t="s" s="12">
-        <f>G22</f>
+      <c r="H23" t="s" s="13">
         <v>134</v>
-      </c>
-      <c r="H23" t="s" s="12">
-        <v>135</v>
       </c>
     </row>
     <row r="24" ht="38.35" customHeight="1">
-      <c r="A24" s="11">
+      <c r="A24" s="12">
         <f>A22</f>
         <v>22</v>
       </c>
-      <c r="B24" t="s" s="12">
+      <c r="B24" t="s" s="13">
         <f>B22</f>
+        <v>128</v>
+      </c>
+      <c r="C24" t="s" s="13">
+        <f>C22</f>
         <v>129</v>
       </c>
-      <c r="C24" t="s" s="12">
-        <f>C22</f>
-        <v>130</v>
-      </c>
-      <c r="D24" t="s" s="12">
+      <c r="D24" t="s" s="13">
+        <v>135</v>
+      </c>
+      <c r="E24" t="s" s="13">
+        <f>E22</f>
+        <v>131</v>
+      </c>
+      <c r="F24" t="s" s="13">
         <v>136</v>
       </c>
-      <c r="E24" t="s" s="12">
-        <f>E22</f>
-        <v>132</v>
-      </c>
-      <c r="F24" t="s" s="12">
+      <c r="G24" t="s" s="13">
         <v>137</v>
       </c>
-      <c r="G24" t="s" s="12">
-        <v>138</v>
-      </c>
-      <c r="H24" t="s" s="12">
-        <v>25</v>
+      <c r="H24" t="s" s="13">
+        <v>24</v>
       </c>
     </row>
     <row r="25" ht="50.35" customHeight="1">
-      <c r="A25" s="11">
+      <c r="A25" s="12">
         <f>A22</f>
         <v>22</v>
       </c>
-      <c r="B25" t="s" s="12">
+      <c r="B25" t="s" s="13">
         <f>B22</f>
+        <v>128</v>
+      </c>
+      <c r="C25" t="s" s="13">
+        <f>C22</f>
         <v>129</v>
       </c>
-      <c r="C25" t="s" s="12">
-        <f>C22</f>
+      <c r="D25" t="s" s="13">
+        <f>D22</f>
         <v>130</v>
       </c>
-      <c r="D25" t="s" s="12">
-        <f>D22</f>
+      <c r="E25" t="s" s="13">
+        <f>E22</f>
         <v>131</v>
       </c>
-      <c r="E25" t="s" s="12">
-        <f>E22</f>
-        <v>132</v>
-      </c>
-      <c r="F25" t="s" s="12">
+      <c r="F25" t="s" s="13">
+        <v>138</v>
+      </c>
+      <c r="G25" t="s" s="13">
         <v>139</v>
       </c>
-      <c r="G25" t="s" s="12">
-        <v>140</v>
-      </c>
-      <c r="H25" t="s" s="12">
-        <v>25</v>
+      <c r="H25" t="s" s="13">
+        <v>24</v>
       </c>
     </row>
     <row r="26" ht="50.35" customHeight="1">
-      <c r="A26" s="11">
+      <c r="A26" s="12">
         <f>A25</f>
         <v>22</v>
       </c>
-      <c r="B26" t="s" s="12">
+      <c r="B26" t="s" s="13">
         <f>B25</f>
+        <v>128</v>
+      </c>
+      <c r="C26" t="s" s="13">
+        <f>C25</f>
         <v>129</v>
       </c>
-      <c r="C26" t="s" s="12">
-        <f>C25</f>
+      <c r="D26" t="s" s="13">
+        <f>D25</f>
         <v>130</v>
       </c>
-      <c r="D26" t="s" s="12">
-        <f>D25</f>
+      <c r="E26" t="s" s="13">
+        <f>E25</f>
         <v>131</v>
       </c>
-      <c r="E26" t="s" s="12">
-        <f>E25</f>
-        <v>132</v>
-      </c>
-      <c r="F26" t="s" s="12">
+      <c r="F26" t="s" s="13">
         <f>F25</f>
+        <v>140</v>
+      </c>
+      <c r="G26" t="s" s="13">
+        <f>G25</f>
         <v>141</v>
       </c>
-      <c r="G26" t="s" s="12">
-        <f>G25</f>
-        <v>142</v>
-      </c>
-      <c r="H26" t="s" s="12">
-        <v>135</v>
+      <c r="H26" t="s" s="13">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
